--- a/PDF/GRAMATICAS.xlsx
+++ b/PDF/GRAMATICAS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AXEL\DOCUMENTOS\U\GITHUB\P3_LP_2021\PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B0A37-0E54-4EDA-8FBC-83BB25D0A6BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8770D2AB-B910-4846-9406-6C3C097F950A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="6240" windowWidth="28800" windowHeight="12135" xr2:uid="{B06E92A3-4B6D-4A12-A710-30B277FAE776}"/>
+    <workbookView xWindow="5865" yWindow="2295" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{B06E92A3-4B6D-4A12-A710-30B277FAE776}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +35,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
-  <si>
-    <t>S,A,B,C;a,b,z;S
-S-&gt;A
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="101">
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>estado,epsilon,NT</t>
+  </si>
+  <si>
+    <t>estado,Produccion</t>
+  </si>
+  <si>
+    <t>S,A,B,C</t>
+  </si>
+  <si>
+    <t>a,b,z</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A[1]</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>a A a</t>
+  </si>
+  <si>
+    <t>b B b</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>z C</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>;;;;;;</t>
+  </si>
+  <si>
+    <t>A[2]</t>
+  </si>
+  <si>
+    <t>B[1]</t>
+  </si>
+  <si>
+    <t>ε|nt,Simbolo|nt,produccion</t>
+  </si>
+  <si>
+    <t>CONTENIDO DE PILA</t>
+  </si>
+  <si>
+    <t>RESTO ENTRADA</t>
+  </si>
+  <si>
+    <t>TRANSACCION EJECUTADA</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>S#</t>
+  </si>
+  <si>
+    <t>abzba</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>aAa</t>
+  </si>
+  <si>
+    <t>aAa#</t>
+  </si>
+  <si>
+    <t>Aa#</t>
+  </si>
+  <si>
+    <t>bzba</t>
+  </si>
+  <si>
+    <t>Ba#</t>
+  </si>
+  <si>
+    <t>bBba#</t>
+  </si>
+  <si>
+    <t>Bba#</t>
+  </si>
+  <si>
+    <t>Cba#</t>
+  </si>
+  <si>
+    <t>zba#</t>
+  </si>
+  <si>
+    <t>ba#</t>
+  </si>
+  <si>
+    <t>a#</t>
+  </si>
+  <si>
+    <t>bBb</t>
+  </si>
+  <si>
+    <t>zba</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Estado,ε,NT,Estado,Produccion</t>
+  </si>
+  <si>
+    <t>NT=nt sustituir</t>
+  </si>
+  <si>
+    <t>produc=produccion sistutir</t>
+  </si>
+  <si>
+    <t>Estado,nt,nt,Estado,ε</t>
+  </si>
+  <si>
+    <t>nt=evaluado,sustituido</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>S,A,B,C;a,b,z;S</t>
+  </si>
+  <si>
+    <t>S-&gt;A
 A-&gt;a A a
 A-&gt;B
 B-&gt;b B b
@@ -46,179 +217,140 @@
 C-&gt;z</t>
   </si>
   <si>
-    <t>ε</t>
-  </si>
-  <si>
-    <t>estado,epsilon,NT</t>
-  </si>
-  <si>
-    <t>estado,Produccion</t>
-  </si>
-  <si>
-    <t>S,A,B,C</t>
-  </si>
-  <si>
-    <t>a,b,z</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A[1]</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>a A a</t>
-  </si>
-  <si>
-    <t>b B b</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>z C</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>;;;;;;</t>
-  </si>
-  <si>
-    <t>A[2]</t>
-  </si>
-  <si>
-    <t>B[1]</t>
-  </si>
-  <si>
-    <t>ε|nt,Simbolo|nt,produccion</t>
-  </si>
-  <si>
-    <t>CONTENIDO DE PILA</t>
-  </si>
-  <si>
-    <t>RESTO ENTRADA</t>
-  </si>
-  <si>
-    <t>TRANSACCION EJECUTADA</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>S#</t>
-  </si>
-  <si>
-    <t>abzba</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>||</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>A#</t>
-  </si>
-  <si>
-    <t>aAa</t>
-  </si>
-  <si>
-    <t>aAa#</t>
-  </si>
-  <si>
-    <t>Aa#</t>
-  </si>
-  <si>
-    <t>bzba</t>
-  </si>
-  <si>
-    <t>Ba#</t>
-  </si>
-  <si>
-    <t>bBba#</t>
-  </si>
-  <si>
-    <t>Bba#</t>
-  </si>
-  <si>
-    <t>Cba#</t>
-  </si>
-  <si>
-    <t>zba#</t>
-  </si>
-  <si>
-    <t>ba#</t>
-  </si>
-  <si>
-    <t>a#</t>
-  </si>
-  <si>
-    <t>bBb</t>
-  </si>
-  <si>
-    <t>zba</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Estado,ε,NT,Estado,Produccion</t>
-  </si>
-  <si>
-    <t>NT=nt sustituir</t>
-  </si>
-  <si>
-    <t>produc=produccion sistutir</t>
-  </si>
-  <si>
-    <t>Estado,nt,nt,Estado,ε</t>
-  </si>
-  <si>
-    <t>nt=evaluado,sustituido</t>
-  </si>
-  <si>
-    <t>Ω</t>
+    <t>PASO1</t>
+  </si>
+  <si>
+    <t>PASO2</t>
+  </si>
+  <si>
+    <t>PASO EX 2</t>
+  </si>
+  <si>
+    <t>PASO EX 1</t>
+  </si>
+  <si>
+    <t>PASO F</t>
+  </si>
+  <si>
+    <t>C[0]</t>
+  </si>
+  <si>
+    <t>C[1]</t>
+  </si>
+  <si>
+    <t>C[2]</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>0 B 0</t>
+  </si>
+  <si>
+    <t>0 C 0</t>
+  </si>
+  <si>
+    <t>1 D 1</t>
+  </si>
+  <si>
+    <t>2 E 2</t>
+  </si>
+  <si>
+    <t>T;NT;T</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IZ</t>
+  </si>
+  <si>
+    <t>DER</t>
+  </si>
+  <si>
+    <t>T|NT</t>
+  </si>
+  <si>
+    <t>a[0]</t>
+  </si>
+  <si>
+    <t>a[1]</t>
+  </si>
+  <si>
+    <t>a[2]</t>
+  </si>
+  <si>
+    <t>a[3]</t>
+  </si>
+  <si>
+    <t>(S,02320,[],{})</t>
+  </si>
+  <si>
+    <t>ε sacar de la txtpila(0) sacar pila(0)</t>
+  </si>
+  <si>
+    <t>BUSCADOR</t>
+  </si>
+  <si>
+    <t>ε SE PUEDE ELMINAR</t>
+  </si>
+  <si>
+    <t>(A,02320,[A],{})</t>
+  </si>
+  <si>
+    <t>(0,02320,[0],{})</t>
+  </si>
+  <si>
+    <t>ε!= Nbusqueda ,sacar txtpila(0), agregar nuevos txtpila(nveces)</t>
+  </si>
+  <si>
+    <t>(0,2320,[],{0})</t>
+  </si>
+  <si>
+    <t>(0,02320,[0 B 0],{})</t>
+  </si>
+  <si>
+    <t>(B,2320,[B 0],{})</t>
+  </si>
+  <si>
+    <t>A[2]!=E</t>
+  </si>
+  <si>
+    <t>A[2]==E</t>
+  </si>
+  <si>
+    <t>PILA==0</t>
+  </si>
+  <si>
+    <t>D(E,A,0)</t>
+  </si>
+  <si>
+    <t>(1,2320,[1 0],{})</t>
+  </si>
+  <si>
+    <t>PILA!=2;0</t>
+  </si>
+  <si>
+    <t>D(E,B,1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +363,19 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF938884"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -329,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -346,13 +491,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE4B9C4-07F1-4A3F-BDA6-FAADACD62D3B}">
-  <dimension ref="A3:Y21"/>
+  <dimension ref="A2:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="N1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,126 +849,157 @@
     <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.140625" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21" customWidth="1"/>
     <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:25" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="18"/>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>25</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="8" t="str">
         <f>D8</f>
@@ -824,51 +1015,54 @@
       </c>
       <c r="M8" s="13"/>
       <c r="O8" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="S8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="V8" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" ref="J9:J17" si="0">D9</f>
@@ -884,57 +1078,60 @@
       </c>
       <c r="M9" s="13"/>
       <c r="O9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="S9" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="X9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" t="s">
         <v>52</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="I10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -950,54 +1147,57 @@
       </c>
       <c r="M10" s="13"/>
       <c r="O10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="Q10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="X10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1013,51 +1213,54 @@
       </c>
       <c r="M11" s="13"/>
       <c r="O11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>36</v>
+      <c r="W11" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1073,51 +1276,54 @@
       </c>
       <c r="M12" s="13"/>
       <c r="O12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="I13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1133,51 +1339,54 @@
       </c>
       <c r="M13" s="13"/>
       <c r="O13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="Q13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>9</v>
+      <c r="W13" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1193,51 +1402,54 @@
       </c>
       <c r="M14" s="13"/>
       <c r="O14" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1253,51 +1465,54 @@
       </c>
       <c r="M15" s="12"/>
       <c r="O15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1313,51 +1528,54 @@
       </c>
       <c r="M16" s="12"/>
       <c r="O16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1373,157 +1591,172 @@
       </c>
       <c r="M17" s="12"/>
       <c r="O17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" t="str">
+        <f>H8</f>
+        <v>A</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="X17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="O18" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="P18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="X18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="I19" s="2"/>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" t="str">
-        <f>H8</f>
-        <v>A</v>
+        <v>55</v>
+      </c>
+      <c r="L19" t="s">
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.25">
       <c r="I20" s="2"/>
-      <c r="J20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1</v>
-      </c>
       <c r="O20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="O21" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1535,4 +1768,487 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D41E498-4633-4910-B89F-F79A3773A361}">
+  <dimension ref="A2:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="str">
+        <f>B3</f>
+        <v>S</v>
+      </c>
+      <c r="J3" s="15" t="str">
+        <f>D3</f>
+        <v>A</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f t="shared" ref="I4:I11" si="0">B4</f>
+        <v>A</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" ref="J4:J11" si="1">D4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="O4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="J5" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>0 B 0</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="O5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="J6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>0 C 0</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="O7" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="J8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>1 D 1</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="O8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="O9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="J10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>2 E 2</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="P12" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H15" s="15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J16" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PDF/GRAMATICAS.xlsx
+++ b/PDF/GRAMATICAS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AXEL\DOCUMENTOS\U\GITHUB\P3_LP_2021\PDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8770D2AB-B910-4846-9406-6C3C097F950A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C76C5C-4B77-4B04-8512-9F1C754EB7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="2295" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{B06E92A3-4B6D-4A12-A710-30B277FAE776}"/>
+    <workbookView xWindow="-19485" yWindow="4095" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{B06E92A3-4B6D-4A12-A710-30B277FAE776}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="ALGORTIMO RE" sheetId="2" r:id="rId2"/>
+    <sheet name="OTRO ALGORITMO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="130">
   <si>
     <t>ε</t>
   </si>
@@ -298,59 +299,146 @@
     <t>(S,02320,[],{})</t>
   </si>
   <si>
-    <t>ε sacar de la txtpila(0) sacar pila(0)</t>
-  </si>
-  <si>
-    <t>BUSCADOR</t>
-  </si>
-  <si>
-    <t>ε SE PUEDE ELMINAR</t>
-  </si>
-  <si>
     <t>(A,02320,[A],{})</t>
   </si>
   <si>
     <t>(0,02320,[0],{})</t>
   </si>
   <si>
-    <t>ε!= Nbusqueda ,sacar txtpila(0), agregar nuevos txtpila(nveces)</t>
+    <t>(0,02320,[0 B 0],{})</t>
+  </si>
+  <si>
+    <t>(1,2320,[1 0],{})</t>
+  </si>
+  <si>
+    <t>(B,2320,[B 0],{0})</t>
   </si>
   <si>
     <t>(0,2320,[],{0})</t>
   </si>
   <si>
-    <t>(0,02320,[0 B 0],{})</t>
-  </si>
-  <si>
-    <t>(B,2320,[B 0],{})</t>
-  </si>
-  <si>
-    <t>A[2]!=E</t>
-  </si>
-  <si>
-    <t>A[2]==E</t>
-  </si>
-  <si>
-    <t>PILA==0</t>
-  </si>
-  <si>
-    <t>D(E,A,0)</t>
-  </si>
-  <si>
-    <t>(1,2320,[1 0],{})</t>
-  </si>
-  <si>
-    <t>PILA!=2;0</t>
-  </si>
-  <si>
-    <t>D(E,B,1)</t>
+    <t>(1,2320,[1 D 1 0],{0})</t>
+  </si>
+  <si>
+    <t>(0,02320,[0 C 0],{})</t>
+  </si>
+  <si>
+    <t>(C,2320,[C 0],{0})</t>
+  </si>
+  <si>
+    <t>(2,2320,[2 0],{0})</t>
+  </si>
+  <si>
+    <t>(2,320,[0],{2 0})</t>
+  </si>
+  <si>
+    <t>(2,2320,[2 E 2 0],{0})</t>
+  </si>
+  <si>
+    <t>(3,320,[3 2 0],{2 0})</t>
+  </si>
+  <si>
+    <t>(2,20,[2 0],{3 2 0})</t>
+  </si>
+  <si>
+    <t>(0,0,[0],{2 3 2 0})</t>
+  </si>
+  <si>
+    <t>(E,320,[E 2 0],{2 0})</t>
+  </si>
+  <si>
+    <t>S1-A2</t>
+  </si>
+  <si>
+    <t>S1-A3-B5</t>
+  </si>
+  <si>
+    <t>ELMINAR(A2)</t>
+  </si>
+  <si>
+    <t>ELIMINAR(B5)</t>
+  </si>
+  <si>
+    <t>S1-A3-B6</t>
+  </si>
+  <si>
+    <t>ELIMINAR(B6)</t>
+  </si>
+  <si>
+    <t>S1-A4-C7</t>
+  </si>
+  <si>
+    <t>S1-A4-C8-E9</t>
+  </si>
+  <si>
+    <t>ELIMINAR(C7)</t>
+  </si>
+  <si>
+    <t>IF []==NT</t>
+  </si>
+  <si>
+    <t>IF []!=E</t>
+  </si>
+  <si>
+    <t>(0,,[],{0 2 3 2 0})</t>
+  </si>
+  <si>
+    <t>IFTXT=0 &amp; IF[]=0</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>BUSCAR(A2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF []!=E </t>
+  </si>
+  <si>
+    <t>IF []==E &amp; TXT[0]=[0]</t>
+  </si>
+  <si>
+    <t>BUSCAR(B5)</t>
+  </si>
+  <si>
+    <t>S1-A3</t>
+  </si>
+  <si>
+    <t>BUSCAR(B6)</t>
+  </si>
+  <si>
+    <t>FIN:</t>
+  </si>
+  <si>
+    <t>BUSCAR(A3)</t>
+  </si>
+  <si>
+    <t>ELIMINAR(A3)</t>
+  </si>
+  <si>
+    <t>BUSCAR(C7)</t>
+  </si>
+  <si>
+    <t>S1-A4</t>
+  </si>
+  <si>
+    <t>TXT[0]=PILA[0]</t>
+  </si>
+  <si>
+    <t>TXT[0]!=PILA[0]</t>
+  </si>
+  <si>
+    <t>PILA=0</t>
+  </si>
+  <si>
+    <t>PILA!=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +461,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -501,17 +596,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE4B9C4-07F1-4A3F-BDA6-FAADACD62D3B}">
   <dimension ref="A2:Y21"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,15 +1036,15 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="18" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="20"/>
       <c r="J7" t="s">
         <v>0</v>
       </c>
@@ -971,13 +1066,13 @@
       <c r="Q7" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
@@ -1772,29 +1867,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D41E498-4633-4910-B89F-F79A3773A361}">
-  <dimension ref="A2:R19"/>
+  <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="3.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1819,12 +1922,27 @@
       <c r="K2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="M2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="15"/>
       <c r="O2" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1840,7 +1958,10 @@
       <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="str">
@@ -1852,20 +1973,35 @@
         <v>A</v>
       </c>
       <c r="K3" s="16"/>
-      <c r="L3" t="s">
-        <v>70</v>
+      <c r="M3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1881,29 +2017,50 @@
       <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21" t="str">
+      <c r="G4" s="15">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18" t="str">
         <f t="shared" ref="I4:I11" si="0">B4</f>
         <v>A</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="18">
         <f t="shared" ref="J4:J11" si="1">D4</f>
         <v>0</v>
       </c>
       <c r="K4" s="16"/>
+      <c r="M4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="O4" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1919,29 +2076,50 @@
       <c r="E5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21" t="str">
+      <c r="G5" s="15">
+        <v>3</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="J5" s="21" t="str">
+      <c r="J5" s="15" t="str">
         <f t="shared" si="1"/>
         <v>0 B 0</v>
       </c>
       <c r="K5" s="16"/>
+      <c r="M5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="O5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="P5" t="s">
-        <v>95</v>
+      <c r="P5" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1956,6 +2134,9 @@
       </c>
       <c r="E6" s="16" t="s">
         <v>75</v>
+      </c>
+      <c r="G6" s="15">
+        <v>4</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>0</v>
@@ -1969,21 +2150,33 @@
         <v>0 C 0</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="15"/>
-      <c r="P6" t="s">
+      <c r="M6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="U6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="Q6" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1999,23 +2192,40 @@
       <c r="E7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21" t="str">
+      <c r="G7" s="15">
+        <v>5</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K7" s="16"/>
       <c r="O7" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2031,29 +2241,29 @@
       <c r="E8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21" t="str">
+      <c r="G8" s="15">
+        <v>6</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="J8" s="21" t="str">
+      <c r="J8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>1 D 1</v>
       </c>
       <c r="K8" s="16"/>
-      <c r="O8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2069,29 +2279,28 @@
       <c r="E9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21" t="str">
+      <c r="G9" s="15">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K9" s="16"/>
-      <c r="O9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="U9" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2106,6 +2315,9 @@
       </c>
       <c r="E10" s="16" t="s">
         <v>75</v>
+      </c>
+      <c r="G10" s="15">
+        <v>8</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>0</v>
@@ -2119,20 +2331,13 @@
         <v>2 E 2</v>
       </c>
       <c r="K10" s="16"/>
-      <c r="L10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="U10" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2147,6 +2352,9 @@
       </c>
       <c r="E11" s="16" t="s">
         <v>5</v>
+      </c>
+      <c r="G11" s="15">
+        <v>9</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>0</v>
@@ -2160,20 +2368,16 @@
         <v>3</v>
       </c>
       <c r="K11" s="16"/>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="U11" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G12" s="15">
+        <v>10</v>
+      </c>
       <c r="H12" s="15">
         <v>0</v>
       </c>
@@ -2184,14 +2388,35 @@
         <v>0</v>
       </c>
       <c r="K12" s="16"/>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>105</v>
       </c>
       <c r="R12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="S12" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G13" s="15">
+        <v>11</v>
+      </c>
       <c r="H13" s="15">
         <v>1</v>
       </c>
@@ -2202,8 +2427,23 @@
         <v>0</v>
       </c>
       <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G14" s="15">
+        <v>12</v>
+      </c>
       <c r="H14" s="15">
         <v>2</v>
       </c>
@@ -2214,8 +2454,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G15" s="15">
+        <v>13</v>
+      </c>
       <c r="H15" s="15">
         <v>3</v>
       </c>
@@ -2226,26 +2481,346 @@
         <v>0</v>
       </c>
       <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J16" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="15" t="s">
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>119</v>
+      </c>
+      <c r="S15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q17" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H19" s="15" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="15" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q22" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985D6589-3041-4245-A6B4-4A826177AA3B}">
+  <dimension ref="A2:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Hoja1!J8</f>
+        <v>ε</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Hoja1!K8</f>
+        <v>S</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Hoja1!L8</f>
+        <v>A</v>
+      </c>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Hoja1!J9</f>
+        <v>ε</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Hoja1!K9</f>
+        <v>A</v>
+      </c>
+      <c r="D3" t="str">
+        <f>Hoja1!L9</f>
+        <v>a A a</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Hoja1!J10</f>
+        <v>ε</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Hoja1!K10</f>
+        <v>A</v>
+      </c>
+      <c r="D4" t="str">
+        <f>Hoja1!L10</f>
+        <v>B</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Hoja1!J11</f>
+        <v>ε</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Hoja1!K11</f>
+        <v>B</v>
+      </c>
+      <c r="D5" t="str">
+        <f>Hoja1!L11</f>
+        <v>b B b</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Hoja1!J12</f>
+        <v>ε</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Hoja1!K12</f>
+        <v>B</v>
+      </c>
+      <c r="D6" t="str">
+        <f>Hoja1!L12</f>
+        <v>C</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Hoja1!J13</f>
+        <v>ε</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Hoja1!K13</f>
+        <v>C</v>
+      </c>
+      <c r="D7" t="str">
+        <f>Hoja1!L13</f>
+        <v>z C</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Hoja1!J14</f>
+        <v>ε</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Hoja1!K14</f>
+        <v>C</v>
+      </c>
+      <c r="D8" t="str">
+        <f>Hoja1!L14</f>
+        <v>z</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Hoja1!J15</f>
+        <v>a</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Hoja1!K15</f>
+        <v>a</v>
+      </c>
+      <c r="D9" t="str">
+        <f>Hoja1!L15</f>
+        <v>ε</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Hoja1!J16</f>
+        <v>b</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Hoja1!K16</f>
+        <v>b</v>
+      </c>
+      <c r="D10" t="str">
+        <f>Hoja1!L16</f>
+        <v>ε</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Hoja1!J17</f>
+        <v>z</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Hoja1!K17</f>
+        <v>z</v>
+      </c>
+      <c r="D11" t="str">
+        <f>Hoja1!L17</f>
+        <v>ε</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Hoja1!J18</f>
+        <v>Ω</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Hoja1!K18</f>
+        <v>Ω</v>
+      </c>
+      <c r="D12" t="str">
+        <f>Hoja1!L18</f>
+        <v>A</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Hoja1!J19</f>
+        <v>ε</v>
+      </c>
+      <c r="C13" t="str">
+        <f>Hoja1!K19</f>
+        <v>Ω</v>
+      </c>
+      <c r="D13" t="str">
+        <f>Hoja1!L19</f>
+        <v>ε</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
